--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
@@ -413,6 +413,20 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -446,20 +460,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1927,7 +1927,6 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4058,7 +4057,7 @@
   <dimension ref="A3:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="U17" sqref="U17"/>
+      <selection activeCell="S17" sqref="S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4080,18 +4079,18 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="43" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="43"/>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="52"/>
       <c r="I4" s="26" t="s">
         <v>4</v>
       </c>
@@ -4164,13 +4163,21 @@
       <c r="B7" s="32">
         <v>14</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="27">
+        <v>1</v>
+      </c>
       <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
+      <c r="E7" s="28">
+        <v>15</v>
+      </c>
       <c r="F7" s="28"/>
-      <c r="G7" s="29"/>
+      <c r="G7" s="29">
+        <v>15</v>
+      </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="30"/>
+      <c r="I7" s="30">
+        <v>15</v>
+      </c>
       <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.3">
@@ -4222,36 +4229,36 @@
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="43">
         <v>18</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="57"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="46"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
+      <c r="A12" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="43">
         <v>19</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
@@ -4334,36 +4341,36 @@
       <c r="J17" s="30"/>
     </row>
     <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="53" t="s">
+      <c r="A18" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="58">
+      <c r="B18" s="47">
         <v>25</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="58">
+      <c r="B19" s="47">
         <v>26</v>
       </c>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
     </row>
     <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
@@ -4470,11 +4477,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -4541,10 +4548,10 @@
       <c r="C12" s="13"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="49">
         <v>1</v>
       </c>
     </row>
@@ -4576,12 +4583,12 @@
       </c>
     </row>
     <row r="4" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="N4" s="46" t="s">
+      <c r="N4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="48"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="56"/>
     </row>
     <row r="5" spans="7:17" x14ac:dyDescent="0.3">
       <c r="N5" s="15"/>
@@ -4631,10 +4638,10 @@
       <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="P11" s="49" t="s">
+      <c r="P11" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="Q11" s="50"/>
+      <c r="Q11" s="58"/>
     </row>
     <row r="12" spans="7:17" x14ac:dyDescent="0.3">
       <c r="P12" s="22">
@@ -4647,17 +4654,17 @@
       </c>
     </row>
     <row r="13" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="P13" s="49" t="s">
+      <c r="P13" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="50"/>
+      <c r="Q13" s="58"/>
     </row>
     <row r="14" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="P14" s="51">
+      <c r="P14" s="59">
         <f>P12+Q12</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="52"/>
+      <c r="Q14" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
@@ -4057,7 +4057,7 @@
   <dimension ref="A3:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4164,19 +4164,19 @@
         <v>14</v>
       </c>
       <c r="C7" s="27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="28">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F7" s="28"/>
       <c r="G7" s="29">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H7" s="29"/>
       <c r="I7" s="30">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="J7" s="24"/>
     </row>

--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monalisa\OneDrive - Hospital Sírio Libanês\Documentos 1\HSL-IPS\Entregaveis\1.RepositorioSemantico\Terminologias\OBM\Monitoramento\03 - Março\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monalisa\OneDrive - Hospital Sírio Libanês\IPS\Entregaveis\OBM\Monitoramento\03 - Março\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
   <si>
     <t>Anotar diariamente as 18h</t>
   </si>
@@ -46,7 +46,16 @@
     <t>AMPP</t>
   </si>
   <si>
+    <t>Realizado</t>
+  </si>
+  <si>
     <t>Revisado</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
   <si>
     <t>t</t>
@@ -55,22 +64,25 @@
     <t>q</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>d</t>
   </si>
   <si>
     <t>Quantidades atuais</t>
   </si>
   <si>
+    <t xml:space="preserve"> (%)</t>
+  </si>
+  <si>
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Média de Rendimento diário</t>
+    <t>4800 (VPM)</t>
   </si>
   <si>
-    <t>Realizado</t>
+    <t>ANDAMENTO DE REALIZADO</t>
+  </si>
+  <si>
+    <t>Média de Rendimento diário</t>
   </si>
   <si>
     <t>Meta para conclusão</t>
@@ -80,18 +92,6 @@
   </si>
   <si>
     <t>META DIÁRIA</t>
-  </si>
-  <si>
-    <t>ANDAMENTO DE REALIZADO</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (%)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>4800 (VPM)</t>
   </si>
 </sst>
 </file>
@@ -342,7 +342,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -351,16 +351,14 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -403,10 +401,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -436,7 +434,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -4057,7 +4055,7 @@
   <dimension ref="A3:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4077,380 +4075,420 @@
       <c r="J3" s="2"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
-      <c r="C4" s="50" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="52" t="s">
+      <c r="F4" s="49"/>
+      <c r="G4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="26" t="s">
+      <c r="H4" s="50"/>
+      <c r="I4" s="24" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="3"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="27" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="28" t="s">
+      <c r="D5" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="29" t="s">
+      <c r="F5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="23" t="s">
+      <c r="H5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>5</v>
+      </c>
+      <c r="J5" s="21" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="30">
+        <v>13</v>
+      </c>
+      <c r="C6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="32">
-        <v>13</v>
-      </c>
-      <c r="C6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="24" t="s">
-        <v>19</v>
+      <c r="D6" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="22" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="32">
+      <c r="A7" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="30">
         <v>14</v>
       </c>
-      <c r="C7" s="27">
-        <v>2</v>
-      </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28">
-        <v>19</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="29">
-        <v>19</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="30">
-        <v>19</v>
-      </c>
-      <c r="J7" s="24"/>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="26">
+        <v>18</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="27">
+        <v>18</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="28">
+        <v>18</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="32">
+      <c r="A8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="30">
         <v>15</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="32">
+      <c r="A9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="30">
         <v>16</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="24"/>
+      <c r="C9" s="25">
+        <v>2</v>
+      </c>
+      <c r="D9" s="25">
+        <v>2</v>
+      </c>
+      <c r="E9" s="26">
+        <v>2</v>
+      </c>
+      <c r="F9" s="26">
+        <v>2</v>
+      </c>
+      <c r="G9" s="27">
+        <v>2</v>
+      </c>
+      <c r="H9" s="27">
+        <v>2</v>
+      </c>
+      <c r="I9" s="28">
+        <v>2</v>
+      </c>
+      <c r="J9" s="22">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="32">
+      <c r="A10" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="30">
         <v>17</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="24"/>
+      <c r="C10" s="25">
+        <v>3</v>
+      </c>
+      <c r="D10" s="25">
+        <v>3</v>
+      </c>
+      <c r="E10" s="26">
+        <v>3</v>
+      </c>
+      <c r="F10" s="26">
+        <v>3</v>
+      </c>
+      <c r="G10" s="27">
+        <v>3</v>
+      </c>
+      <c r="H10" s="27">
+        <v>3</v>
+      </c>
+      <c r="I10" s="28">
+        <v>3</v>
+      </c>
+      <c r="J10" s="22">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="43">
+      <c r="A11" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="41">
         <v>18</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="44"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="43">
+      <c r="A12" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="41">
         <v>19</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
     </row>
     <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="35">
+      <c r="A13" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="33">
         <v>20</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="35">
+      <c r="A14" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="33">
         <v>21</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="35">
+      <c r="A15" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="33">
         <v>22</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="35">
+      <c r="A16" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="33">
         <v>23</v>
       </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="30"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="35">
+      <c r="A17" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="33">
         <v>24</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="47">
+      <c r="A18" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="45">
         <v>25</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
     </row>
     <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B19" s="47">
+      <c r="A19" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="45">
         <v>26</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
     </row>
     <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="35">
+      <c r="A20" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="33">
         <v>27</v>
       </c>
-      <c r="C20" s="27"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="27"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="35">
+      <c r="A21" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="33">
         <v>28</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="35">
+      <c r="A22" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="33">
         <v>29</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="35">
+      <c r="A23" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="33">
         <v>30</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="35">
+      <c r="A24" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="33">
         <v>31</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4473,48 +4511,48 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="15.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
+      <c r="A2" s="51" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="35" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="37" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="10"/>
@@ -4522,36 +4560,16 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="11"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-    </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="49">
+      <c r="B14" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="47">
         <v>1</v>
       </c>
     </row>
@@ -4578,93 +4596,93 @@
   </cols>
   <sheetData>
     <row r="3" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="G3" s="14" t="s">
-        <v>17</v>
+      <c r="G3" s="12" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="N4" s="54" t="s">
-        <v>12</v>
-      </c>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="56"/>
+      <c r="N4" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="54"/>
     </row>
     <row r="5" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="N5" s="15"/>
-      <c r="O5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" s="15"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="13"/>
     </row>
     <row r="6" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="16"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
     </row>
     <row r="7" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
     </row>
     <row r="8" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="N8" s="19" t="s">
+      <c r="N8" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
     </row>
     <row r="9" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="N9" s="20" t="s">
+      <c r="N9" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
     </row>
     <row r="10" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="N10" s="21" t="s">
+      <c r="N10" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
     </row>
     <row r="11" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="P11" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q11" s="58"/>
+      <c r="P11" s="55" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="56"/>
     </row>
     <row r="12" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="P12" s="22">
+      <c r="P12" s="20">
         <f>SUM(P7:P10)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="22">
+      <c r="Q12" s="20">
         <f>SUM(Q7:Q10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="P13" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="58"/>
+      <c r="P13" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q13" s="56"/>
     </row>
     <row r="14" spans="7:17" x14ac:dyDescent="0.3">
-      <c r="P14" s="59">
+      <c r="P14" s="57">
         <f>P12+Q12</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="60"/>
+      <c r="Q14" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4676,4 +4694,232 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AA942BBF91DA3C409F6490A3FF65830D" ma:contentTypeVersion="6" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6812ba0663fc707bade8cd767ba40b1f">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="976d66e2-41d4-4691-bc00-48b7de60855d" xmlns:ns3="510e5242-86c9-4bc1-91ef-71d595c6f6eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7aaebdfc92267690fb596e4210c7015b" ns2:_="" ns3:_="">
+    <xsd:import namespace="976d66e2-41d4-4691-bc00-48b7de60855d"/>
+    <xsd:import namespace="510e5242-86c9-4bc1-91ef-71d595c6f6eb"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="976d66e2-41d4-4691-bc00-48b7de60855d" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="12" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="13" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="510e5242-86c9-4bc1-91ef-71d595c6f6eb" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="10" nillable="true" ma:displayName="Partilhado Com" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="11" nillable="true" ma:displayName="Detalhes de Partilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94376DA7-3A4B-4090-B225-475FD6D057CC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="976d66e2-41d4-4691-bc00-48b7de60855d"/>
+    <ds:schemaRef ds:uri="510e5242-86c9-4bc1-91ef-71d595c6f6eb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="20">
   <si>
     <t>Anotar diariamente as 18h</t>
   </si>
@@ -683,7 +683,7 @@
   <dimension ref="A3:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -984,7 +984,9 @@
       <c r="B13" s="37">
         <v>20</v>
       </c>
-      <c r="C13" s="28"/>
+      <c r="C13" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="D13" s="28"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
@@ -1000,7 +1002,9 @@
       <c r="B14" s="37">
         <v>21</v>
       </c>
-      <c r="C14" s="28"/>
+      <c r="C14" s="28" t="s">
+        <v>8</v>
+      </c>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
@@ -1402,12 +1406,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AA942BBF91DA3C409F6490A3FF65830D" ma:contentTypeVersion="6" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6812ba0663fc707bade8cd767ba40b1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="976d66e2-41d4-4691-bc00-48b7de60855d" xmlns:ns3="510e5242-86c9-4bc1-91ef-71d595c6f6eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7aaebdfc92267690fb596e4210c7015b" ns2:_="" ns3:_="">
     <xsd:import namespace="976d66e2-41d4-4691-bc00-48b7de60855d"/>
@@ -1584,6 +1582,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1594,15 +1598,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D700868-108A-49E2-B4B4-2D02773D9589}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1621,6 +1616,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
   <ds:schemaRefs>

--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monalisa\OneDrive - Hospital Sírio Libanês\Documentos 1\HSL-IPS\Entregaveis\1.RepositorioSemantico\Terminologias\OBM\Monitoramento\03 - Março\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcmatos\Documents\HSL-IPS\Entregaveis\1.RepositorioSemantico\Terminologias\OBM\Monitoramento\03 - Março\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Monitoramento diário" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="20">
   <si>
     <t>Anotar diariamente as 18h</t>
   </si>
@@ -683,15 +683,15 @@
   <dimension ref="A3:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -705,7 +705,7 @@
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="40" t="s">
@@ -725,7 +725,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="28" t="s">
@@ -753,7 +753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
@@ -785,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
@@ -817,7 +817,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>10</v>
       </c>
@@ -881,7 +881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
@@ -913,7 +913,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
@@ -945,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>11</v>
       </c>
@@ -977,25 +977,31 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>7</v>
       </c>
       <c r="B13" s="37">
         <v>20</v>
       </c>
-      <c r="C13" s="28" t="s">
-        <v>8</v>
+      <c r="C13" s="28">
+        <v>3</v>
       </c>
       <c r="D13" s="28"/>
-      <c r="E13" s="29"/>
+      <c r="E13" s="29">
+        <v>17</v>
+      </c>
       <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
+      <c r="G13" s="30">
+        <v>17</v>
+      </c>
       <c r="H13" s="30"/>
-      <c r="I13" s="31"/>
+      <c r="I13" s="31">
+        <v>17</v>
+      </c>
       <c r="J13" s="31"/>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>9</v>
       </c>
@@ -1013,7 +1019,7 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>10</v>
       </c>
@@ -1029,7 +1035,7 @@
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
     </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
         <v>10</v>
       </c>
@@ -1045,7 +1051,7 @@
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
         <v>7</v>
       </c>
@@ -1061,7 +1067,7 @@
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
     </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="34" t="s">
         <v>7</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="34" t="s">
         <v>11</v>
       </c>
@@ -1125,7 +1131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
         <v>7</v>
       </c>
@@ -1141,7 +1147,7 @@
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
     </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
         <v>9</v>
       </c>
@@ -1157,7 +1163,7 @@
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="36" t="s">
         <v>10</v>
       </c>
@@ -1173,7 +1179,7 @@
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
     </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="36" t="s">
         <v>10</v>
       </c>
@@ -1189,7 +1195,7 @@
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
     </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="36" t="s">
         <v>7</v>
       </c>
@@ -1223,20 +1229,20 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="43" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="17" t="s">
         <v>5</v>
@@ -1245,42 +1251,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="23" t="s">
         <v>19</v>
       </c>
@@ -1305,12 +1311,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="12.109375" customWidth="1"/>
+    <col min="2" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
         <v>15</v>
       </c>
@@ -1318,7 +1324,7 @@
       <c r="C4" s="45"/>
       <c r="D4" s="46"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
         <v>5</v>
@@ -1328,12 +1334,12 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
@@ -1341,7 +1347,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
@@ -1349,7 +1355,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
@@ -1357,7 +1363,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -1365,13 +1371,13 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C11" s="47" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="48"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="16">
         <f>SUM(C7:C10)</f>
         <v>0</v>
@@ -1381,13 +1387,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C13" s="47" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="48"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C14" s="49">
         <f>C12+D12</f>
         <v>0</v>
@@ -1406,6 +1412,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AA942BBF91DA3C409F6490A3FF65830D" ma:contentTypeVersion="6" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6812ba0663fc707bade8cd767ba40b1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="976d66e2-41d4-4691-bc00-48b7de60855d" xmlns:ns3="510e5242-86c9-4bc1-91ef-71d595c6f6eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7aaebdfc92267690fb596e4210c7015b" ns2:_="" ns3:_="">
     <xsd:import namespace="976d66e2-41d4-4691-bc00-48b7de60855d"/>
@@ -1582,22 +1603,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D700868-108A-49E2-B4B4-2D02773D9589}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1614,21 +1637,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcmatos\Documents\HSL-IPS\Entregaveis\1.RepositorioSemantico\Terminologias\OBM\Monitoramento\03 - Março\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monalisa\OneDrive - Hospital Sírio Libanês\Documentos 1\HSL-IPS\Entregaveis\1.RepositorioSemantico\Terminologias\OBM\Monitoramento\03 - Março\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
   </bookViews>
   <sheets>
     <sheet name="Monitoramento diário" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
   <si>
     <t>Anotar diariamente as 18h</t>
   </si>
@@ -683,15 +683,15 @@
   <dimension ref="A3:J24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="26"/>
+    <col min="1" max="16384" width="8.88671875" style="26"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="25"/>
@@ -705,7 +705,7 @@
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="39"/>
       <c r="B4" s="39"/>
       <c r="C4" s="40" t="s">
@@ -725,7 +725,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="39"/>
       <c r="B5" s="39"/>
       <c r="C5" s="28" t="s">
@@ -753,7 +753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
@@ -785,7 +785,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>9</v>
       </c>
@@ -793,31 +793,31 @@
         <v>14</v>
       </c>
       <c r="C7" s="28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="29">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F7" s="29" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="30">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H7" s="30" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="31">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J7" s="31" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>10</v>
       </c>
@@ -849,7 +849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>10</v>
       </c>
@@ -881,7 +881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>7</v>
       </c>
@@ -889,31 +889,31 @@
         <v>17</v>
       </c>
       <c r="C10" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D10" s="28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" s="29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="29">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G10" s="30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I10" s="31">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J10" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>7</v>
       </c>
@@ -945,7 +945,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>11</v>
       </c>
@@ -977,7 +977,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="36" t="s">
         <v>7</v>
       </c>
@@ -985,32 +985,32 @@
         <v>20</v>
       </c>
       <c r="C13" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="28"/>
       <c r="E13" s="29">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F13" s="29"/>
       <c r="G13" s="30">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="H13" s="30"/>
       <c r="I13" s="31">
-        <v>17</v>
-      </c>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="J13" s="31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="36" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="37">
         <v>21</v>
       </c>
-      <c r="C14" s="28" t="s">
-        <v>8</v>
-      </c>
+      <c r="C14" s="28"/>
       <c r="D14" s="28"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
@@ -1019,7 +1019,7 @@
       <c r="I14" s="31"/>
       <c r="J14" s="31"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="36" t="s">
         <v>10</v>
       </c>
@@ -1035,7 +1035,7 @@
       <c r="I15" s="31"/>
       <c r="J15" s="31"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="36" t="s">
         <v>10</v>
       </c>
@@ -1051,7 +1051,7 @@
       <c r="I16" s="31"/>
       <c r="J16" s="31"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="36" t="s">
         <v>7</v>
       </c>
@@ -1067,7 +1067,7 @@
       <c r="I17" s="31"/>
       <c r="J17" s="31"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="34" t="s">
         <v>7</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="34" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="36" t="s">
         <v>7</v>
       </c>
@@ -1147,7 +1147,7 @@
       <c r="I20" s="31"/>
       <c r="J20" s="31"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="36" t="s">
         <v>9</v>
       </c>
@@ -1163,7 +1163,7 @@
       <c r="I21" s="31"/>
       <c r="J21" s="31"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="36" t="s">
         <v>10</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="I22" s="31"/>
       <c r="J22" s="31"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="36" t="s">
         <v>10</v>
       </c>
@@ -1195,7 +1195,7 @@
       <c r="I23" s="31"/>
       <c r="J23" s="31"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="36" t="s">
         <v>7</v>
       </c>
@@ -1229,20 +1229,20 @@
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="43" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="17" t="s">
         <v>5</v>
@@ -1251,42 +1251,42 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="23" t="s">
         <v>19</v>
       </c>
@@ -1311,12 +1311,12 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="12.140625" customWidth="1"/>
+    <col min="2" max="4" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>15</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="C4" s="45"/>
       <c r="D4" s="46"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
         <v>5</v>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
         <v>1</v>
       </c>
@@ -1347,7 +1347,7 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
@@ -1355,7 +1355,7 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>4</v>
       </c>
@@ -1363,7 +1363,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>3</v>
       </c>
@@ -1371,13 +1371,13 @@
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="47" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="48"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="16">
         <f>SUM(C7:C10)</f>
         <v>0</v>
@@ -1387,13 +1387,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="47" t="s">
         <v>18</v>
       </c>
       <c r="D13" s="48"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="49">
         <f>C12+D12</f>
         <v>0</v>
@@ -1421,12 +1421,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AA942BBF91DA3C409F6490A3FF65830D" ma:contentTypeVersion="6" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6812ba0663fc707bade8cd767ba40b1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="976d66e2-41d4-4691-bc00-48b7de60855d" xmlns:ns3="510e5242-86c9-4bc1-91ef-71d595c6f6eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7aaebdfc92267690fb596e4210c7015b" ns2:_="" ns3:_="">
     <xsd:import namespace="976d66e2-41d4-4691-bc00-48b7de60855d"/>
@@ -1603,6 +1597,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
   <ds:schemaRefs>
@@ -1612,15 +1612,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D700868-108A-49E2-B4B4-2D02773D9589}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1637,4 +1628,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monalisa\OneDrive - Hospital Sírio Libanês\Documentos 1\HSL-IPS\Entregaveis\1.RepositorioSemantico\Terminologias\OBM\Monitoramento\03 - Março\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA14B4B-D51C-3643-9425-D972E66191C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29180" windowHeight="14240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitoramento diário" sheetId="1" r:id="rId1"/>
     <sheet name="Monitoramento mensal total" sheetId="2" r:id="rId2"/>
     <sheet name="Gráfico" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="21">
   <si>
     <t>Anotar diariamente as 18h</t>
   </si>
@@ -86,16 +98,19 @@
   </si>
   <si>
     <t>4800 lista Hórus</t>
+  </si>
+  <si>
+    <t>Totais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +154,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,11 +316,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -364,9 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -400,6 +423,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,537 +706,572 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="26"/>
+    <col min="1" max="16384" width="8.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="27" t="s">
+      <c r="H4" s="39"/>
+      <c r="I4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="28" t="s">
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="30">
         <v>13</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="C6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="30">
         <v>14</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="26">
         <v>3</v>
       </c>
-      <c r="D7" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="29">
+      <c r="D7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="27">
         <v>20</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="30">
+      <c r="F7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="28">
         <v>20</v>
       </c>
-      <c r="H7" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="31">
+      <c r="H7" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="29">
         <v>20</v>
       </c>
-      <c r="J7" s="31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="J7" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="32">
+      <c r="B8" s="30">
         <v>15</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="C8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="30">
         <v>16</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="26">
         <v>2</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="26">
         <v>2</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="27">
         <v>2</v>
       </c>
-      <c r="F9" s="29">
+      <c r="F9" s="27">
         <v>2</v>
       </c>
-      <c r="G9" s="30">
+      <c r="G9" s="28">
         <v>2</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="28">
         <v>2</v>
       </c>
-      <c r="I9" s="31">
+      <c r="I9" s="29">
         <v>2</v>
       </c>
-      <c r="J9" s="31">
+      <c r="J9" s="29">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="32">
+      <c r="B10" s="30">
         <v>17</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="26">
         <v>9</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="26">
         <v>9</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="27">
         <v>14</v>
       </c>
-      <c r="F10" s="29">
+      <c r="F10" s="27">
         <v>14</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="28">
         <v>14</v>
       </c>
-      <c r="H10" s="30">
+      <c r="H10" s="28">
         <v>14</v>
       </c>
-      <c r="I10" s="31">
+      <c r="I10" s="29">
         <v>14</v>
       </c>
-      <c r="J10" s="31">
+      <c r="J10" s="29">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A11" s="34" t="s">
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="35">
+      <c r="B11" s="33">
         <v>18</v>
       </c>
-      <c r="C11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
+      <c r="C11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="33">
         <v>19</v>
       </c>
-      <c r="C12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
+      <c r="C12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="35">
         <v>20</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="26">
         <v>2</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29">
+      <c r="D13" s="26"/>
+      <c r="E13" s="27">
         <v>14</v>
       </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30">
+      <c r="F13" s="27"/>
+      <c r="G13" s="28">
         <v>14</v>
       </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31">
+      <c r="H13" s="28"/>
+      <c r="I13" s="29">
         <v>14</v>
       </c>
-      <c r="J13" s="31">
+      <c r="J13" s="29">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="35">
         <v>21</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="35">
         <v>22</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="35">
         <v>23</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="35">
         <v>24</v>
       </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18" s="36">
         <v>25</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A19" s="34" t="s">
+      <c r="C18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19" s="36">
         <v>26</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
+      <c r="C19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="35">
         <v>27</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="35">
         <v>28</v>
       </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="35">
         <v>29</v>
       </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="35">
         <v>30</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="35">
         <v>31</v>
       </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48">
+        <f>SUM(D6:D24)</f>
+        <v>11</v>
+      </c>
+      <c r="E25" s="48">
+        <f t="shared" ref="E25:J25" si="0">SUM(E6:E24)</f>
+        <v>50</v>
+      </c>
+      <c r="F25" s="48">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G25" s="48">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H25" s="48">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I25" s="48">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J25" s="48">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1222,75 +1284,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49">
+        <f>('Monitoramento diário'!D25/4800)*100</f>
+        <v>0.22916666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1304,101 +1369,101 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="12.109375" customWidth="1"/>
+    <col min="2" max="4" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="13" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="47" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="48"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="16">
+      <c r="D11" s="45"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="14">
         <f>SUM(C7:C10)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <f>SUM(D7:D10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="47" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="48"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="49">
+      <c r="D13" s="45"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="46">
         <f>C12+D12</f>
         <v>0</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1412,12 +1477,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1598,15 +1660,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1631,10 +1697,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
@@ -1,32 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcmatos\Documents\HSL-IPS\Entregaveis\1.RepositorioSemantico\Terminologias\OBM\Monitoramento\03 - Março\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA14B4B-D51C-3643-9425-D972E66191C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29180" windowHeight="14240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Monitoramento diário" sheetId="1" r:id="rId1"/>
     <sheet name="Monitoramento mensal total" sheetId="2" r:id="rId2"/>
     <sheet name="Gráfico" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="21">
   <si>
     <t>Anotar diariamente as 18h</t>
   </si>
@@ -86,16 +98,19 @@
   </si>
   <si>
     <t>4800 lista Hórus</t>
+  </si>
+  <si>
+    <t>Totais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,8 +154,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +220,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,11 +316,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -364,9 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -400,6 +423,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,537 +706,572 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="26"/>
+    <col min="1" max="16384" width="8.83203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="39"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40" t="s">
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="38"/>
+      <c r="G4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="42"/>
-      <c r="I4" s="27" t="s">
+      <c r="H4" s="39"/>
+      <c r="I4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="39"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="28" t="s">
+      <c r="J4" s="25"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="29" t="s">
+      <c r="F5" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="31" t="s">
+      <c r="I5" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="29" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="32">
+      <c r="B6" s="30">
         <v>13</v>
       </c>
-      <c r="C6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="C6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="32">
+      <c r="B7" s="30">
         <v>14</v>
       </c>
-      <c r="C7" s="28">
-        <v>1</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="29">
+      <c r="C7" s="26">
+        <v>3</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="27">
+        <v>20</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="28">
+        <v>20</v>
+      </c>
+      <c r="H7" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="29">
+        <v>20</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="30">
+        <v>15</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="30">
+        <v>16</v>
+      </c>
+      <c r="C9" s="26">
+        <v>2</v>
+      </c>
+      <c r="D9" s="26">
+        <v>2</v>
+      </c>
+      <c r="E9" s="27">
+        <v>2</v>
+      </c>
+      <c r="F9" s="27">
+        <v>2</v>
+      </c>
+      <c r="G9" s="28">
+        <v>2</v>
+      </c>
+      <c r="H9" s="28">
+        <v>2</v>
+      </c>
+      <c r="I9" s="29">
+        <v>2</v>
+      </c>
+      <c r="J9" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="30">
+        <v>17</v>
+      </c>
+      <c r="C10" s="26">
+        <v>9</v>
+      </c>
+      <c r="D10" s="26">
+        <v>9</v>
+      </c>
+      <c r="E10" s="27">
+        <v>14</v>
+      </c>
+      <c r="F10" s="27">
+        <v>14</v>
+      </c>
+      <c r="G10" s="28">
+        <v>14</v>
+      </c>
+      <c r="H10" s="28">
+        <v>14</v>
+      </c>
+      <c r="I10" s="29">
+        <v>14</v>
+      </c>
+      <c r="J10" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="33">
         <v>18</v>
       </c>
-      <c r="F7" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="30">
-        <v>18</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="31">
-        <v>18</v>
-      </c>
-      <c r="J7" s="31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
+      <c r="C11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="33">
+        <v>19</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="35">
+        <v>20</v>
+      </c>
+      <c r="C13" s="26">
+        <v>2</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27">
+        <v>14</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="28">
+        <v>14</v>
+      </c>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29">
+        <v>14</v>
+      </c>
+      <c r="J13" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="35">
+        <v>21</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="32">
-        <v>15</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="31" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
+      <c r="B15" s="35">
+        <v>22</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B16" s="35">
+        <v>23</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="35">
+        <v>24</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="36">
+        <v>25</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="36">
+        <v>26</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="35">
+        <v>27</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="35">
+        <v>28</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="35">
+        <v>29</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="35">
+        <v>30</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="35">
+        <v>31</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="48" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48">
+        <f>SUM(D6:D24)</f>
+        <v>11</v>
+      </c>
+      <c r="E25" s="48">
+        <f t="shared" ref="E25:J25" si="0">SUM(E6:E24)</f>
+        <v>50</v>
+      </c>
+      <c r="F25" s="48">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C9" s="28">
-        <v>2</v>
-      </c>
-      <c r="D9" s="28">
-        <v>2</v>
-      </c>
-      <c r="E9" s="29">
-        <v>2</v>
-      </c>
-      <c r="F9" s="29">
-        <v>2</v>
-      </c>
-      <c r="G9" s="30">
-        <v>2</v>
-      </c>
-      <c r="H9" s="30">
-        <v>2</v>
-      </c>
-      <c r="I9" s="31">
-        <v>2</v>
-      </c>
-      <c r="J9" s="31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="32">
-        <v>17</v>
-      </c>
-      <c r="C10" s="28">
-        <v>10</v>
-      </c>
-      <c r="D10" s="28">
-        <v>10</v>
-      </c>
-      <c r="E10" s="29">
-        <v>15</v>
-      </c>
-      <c r="F10" s="29">
-        <v>15</v>
-      </c>
-      <c r="G10" s="30">
-        <v>15</v>
-      </c>
-      <c r="H10" s="30">
-        <v>15</v>
-      </c>
-      <c r="I10" s="31">
-        <v>15</v>
-      </c>
-      <c r="J10" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="35">
-        <v>18</v>
-      </c>
-      <c r="C11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="35">
-        <v>19</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J12" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="37">
-        <v>20</v>
-      </c>
-      <c r="C13" s="28">
-        <v>3</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="29">
-        <v>17</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30">
-        <v>17</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="31">
-        <v>17</v>
-      </c>
-      <c r="J13" s="31"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="37">
-        <v>21</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="37">
-        <v>22</v>
-      </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="37">
-        <v>23</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B17" s="37">
-        <v>24</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="38">
-        <v>25</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="34" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="38">
-        <v>26</v>
-      </c>
-      <c r="C19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="35" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="37">
-        <v>27</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="31"/>
-      <c r="J20" s="31"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="37">
-        <v>28</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B22" s="37">
-        <v>29</v>
-      </c>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="37">
+      <c r="G25" s="48">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="H25" s="48">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="I25" s="48">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J25" s="48">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="37">
-        <v>31</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1222,75 +1284,78 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="B4" s="49"/>
+      <c r="C4" s="49">
+        <f>('Monitoramento diário'!D25/4800)*100</f>
+        <v>0.22916666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="8"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="23" t="s">
+      <c r="C8" s="6"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="22">
         <v>1</v>
       </c>
     </row>
@@ -1304,101 +1369,101 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A4:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="12.140625" customWidth="1"/>
+    <col min="2" max="4" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="46"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="43"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C11" s="47" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C11" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="48"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C12" s="16">
+      <c r="D11" s="45"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C12" s="14">
         <f>SUM(C7:C10)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <f>SUM(D7:D10)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="47" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="48"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="49">
+      <c r="D13" s="45"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C14" s="46">
         <f>C12+D12</f>
         <v>0</v>
       </c>
-      <c r="D14" s="50"/>
+      <c r="D14" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1412,21 +1477,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AA942BBF91DA3C409F6490A3FF65830D" ma:contentTypeVersion="6" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6812ba0663fc707bade8cd767ba40b1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="976d66e2-41d4-4691-bc00-48b7de60855d" xmlns:ns3="510e5242-86c9-4bc1-91ef-71d595c6f6eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7aaebdfc92267690fb596e4210c7015b" ns2:_="" ns3:_="">
     <xsd:import namespace="976d66e2-41d4-4691-bc00-48b7de60855d"/>
@@ -1603,15 +1659,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -1620,7 +1677,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D700868-108A-49E2-B4B4-2D02773D9589}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1637,4 +1694,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/beatrizdefarialeao/HSL-IPS-1/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcmatos\Documents\HSL-IPS\Entregaveis\1.RepositorioSemantico\Terminologias\OBM\Monitoramento\03 - Março\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA14B4B-D51C-3643-9425-D972E66191C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29180" windowHeight="14240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="765" windowWidth="29175" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Monitoramento diário" sheetId="1" r:id="rId1"/>
     <sheet name="Monitoramento mensal total" sheetId="2" r:id="rId2"/>
     <sheet name="Gráfico" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -106,7 +105,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -390,6 +389,10 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -423,10 +426,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -706,19 +705,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J25"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="24"/>
+    <col min="1" max="16384" width="8.85546875" style="24"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -732,27 +731,27 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="38" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="39"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="25" t="s">
         <v>4</v>
       </c>
       <c r="J4" s="25"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="26" t="s">
@@ -780,7 +779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>7</v>
       </c>
@@ -812,7 +811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="31" t="s">
         <v>9</v>
       </c>
@@ -844,7 +843,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="31" t="s">
         <v>10</v>
       </c>
@@ -876,7 +875,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="31" t="s">
         <v>10</v>
       </c>
@@ -908,7 +907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="31" t="s">
         <v>7</v>
       </c>
@@ -940,7 +939,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>7</v>
       </c>
@@ -972,7 +971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>11</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>7</v>
       </c>
@@ -1030,23 +1029,31 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="35">
         <v>21</v>
       </c>
-      <c r="C14" s="26"/>
+      <c r="C14" s="26">
+        <v>2</v>
+      </c>
       <c r="D14" s="26"/>
-      <c r="E14" s="27"/>
+      <c r="E14" s="27">
+        <v>65</v>
+      </c>
       <c r="F14" s="27"/>
-      <c r="G14" s="28"/>
+      <c r="G14" s="28">
+        <v>65</v>
+      </c>
       <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
+      <c r="I14" s="29">
+        <v>65</v>
+      </c>
       <c r="J14" s="29"/>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>10</v>
       </c>
@@ -1062,7 +1069,7 @@
       <c r="I15" s="29"/>
       <c r="J15" s="29"/>
     </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>10</v>
       </c>
@@ -1078,7 +1085,7 @@
       <c r="I16" s="29"/>
       <c r="J16" s="29"/>
     </row>
-    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>7</v>
       </c>
@@ -1094,7 +1101,7 @@
       <c r="I17" s="29"/>
       <c r="J17" s="29"/>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>7</v>
       </c>
@@ -1126,7 +1133,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>11</v>
       </c>
@@ -1158,7 +1165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="34" t="s">
         <v>7</v>
       </c>
@@ -1174,7 +1181,7 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
     </row>
-    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>9</v>
       </c>
@@ -1190,7 +1197,7 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
     </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="34" t="s">
         <v>10</v>
       </c>
@@ -1206,7 +1213,7 @@
       <c r="I22" s="29"/>
       <c r="J22" s="29"/>
     </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="34" t="s">
         <v>10</v>
       </c>
@@ -1222,7 +1229,7 @@
       <c r="I23" s="29"/>
       <c r="J23" s="29"/>
     </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="34" t="s">
         <v>7</v>
       </c>
@@ -1238,37 +1245,37 @@
       <c r="I24" s="29"/>
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="48" t="s">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48">
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37">
         <f>SUM(D6:D24)</f>
         <v>11</v>
       </c>
-      <c r="E25" s="48">
+      <c r="E25" s="37">
         <f t="shared" ref="E25:J25" si="0">SUM(E6:E24)</f>
-        <v>50</v>
-      </c>
-      <c r="F25" s="48">
+        <v>115</v>
+      </c>
+      <c r="F25" s="37">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G25" s="48">
+      <c r="G25" s="37">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="H25" s="48">
+        <v>115</v>
+      </c>
+      <c r="H25" s="37">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I25" s="48">
+      <c r="I25" s="37">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="J25" s="48">
+        <v>115</v>
+      </c>
+      <c r="J25" s="37">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1284,27 +1291,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="40"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="15" t="s">
         <v>5</v>
@@ -1313,45 +1320,45 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49">
+      <c r="B4" s="38"/>
+      <c r="C4" s="38">
         <f>('Monitoramento diário'!D25/4800)*100</f>
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" s="21" t="s">
         <v>19</v>
       </c>
@@ -1369,27 +1376,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:D14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="12.1640625" customWidth="1"/>
+    <col min="2" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
         <v>5</v>
@@ -1399,12 +1406,12 @@
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>1</v>
       </c>
@@ -1412,7 +1419,7 @@
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>2</v>
       </c>
@@ -1420,7 +1427,7 @@
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
@@ -1428,7 +1435,7 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>3</v>
       </c>
@@ -1436,13 +1443,13 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C11" s="44" t="s">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C11" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="45"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D11" s="47"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C12" s="14">
         <f>SUM(C7:C10)</f>
         <v>0</v>
@@ -1452,18 +1459,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C13" s="44" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="45"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C14" s="46">
+      <c r="D13" s="47"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C14" s="48">
         <f>C12+D12</f>
         <v>0</v>
       </c>
-      <c r="D14" s="47"/>
+      <c r="D14" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1477,9 +1484,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1660,19 +1670,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1697,9 +1703,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
@@ -709,7 +709,7 @@
   <dimension ref="A3:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,13 +1060,21 @@
       <c r="B15" s="35">
         <v>22</v>
       </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="26">
+        <v>1</v>
+      </c>
       <c r="D15" s="26"/>
-      <c r="E15" s="27"/>
+      <c r="E15" s="27">
+        <v>33</v>
+      </c>
       <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="G15" s="28">
+        <v>33</v>
+      </c>
       <c r="H15" s="28"/>
-      <c r="I15" s="29"/>
+      <c r="I15" s="29">
+        <v>33</v>
+      </c>
       <c r="J15" s="29"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -1257,7 +1265,7 @@
       </c>
       <c r="E25" s="37">
         <f t="shared" ref="E25:J25" si="0">SUM(E6:E24)</f>
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="0"/>
@@ -1265,7 +1273,7 @@
       </c>
       <c r="G25" s="37">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="H25" s="37">
         <f t="shared" si="0"/>
@@ -1273,7 +1281,7 @@
       </c>
       <c r="I25" s="37">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="J25" s="37">
         <f t="shared" si="0"/>
@@ -1484,15 +1492,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AA942BBF91DA3C409F6490A3FF65830D" ma:contentTypeVersion="6" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6812ba0663fc707bade8cd767ba40b1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="976d66e2-41d4-4691-bc00-48b7de60855d" xmlns:ns3="510e5242-86c9-4bc1-91ef-71d595c6f6eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7aaebdfc92267690fb596e4210c7015b" ns2:_="" ns3:_="">
     <xsd:import namespace="976d66e2-41d4-4691-bc00-48b7de60855d"/>
@@ -1669,6 +1668,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1676,14 +1684,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D700868-108A-49E2-B4B4-2D02773D9589}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1702,6 +1702,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
   <ds:schemaRefs>

--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
@@ -709,7 +709,7 @@
   <dimension ref="A3:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,19 +1061,19 @@
         <v>22</v>
       </c>
       <c r="C15" s="26">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D15" s="26"/>
       <c r="E15" s="27">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="28">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H15" s="28"/>
       <c r="I15" s="29">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="J15" s="29"/>
     </row>
@@ -1265,7 +1265,7 @@
       </c>
       <c r="E25" s="37">
         <f t="shared" ref="E25:J25" si="0">SUM(E6:E24)</f>
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="0"/>
@@ -1273,7 +1273,7 @@
       </c>
       <c r="G25" s="37">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="H25" s="37">
         <f t="shared" si="0"/>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="I25" s="37">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="J25" s="37">
         <f t="shared" si="0"/>
@@ -1492,6 +1492,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AA942BBF91DA3C409F6490A3FF65830D" ma:contentTypeVersion="6" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6812ba0663fc707bade8cd767ba40b1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="976d66e2-41d4-4691-bc00-48b7de60855d" xmlns:ns3="510e5242-86c9-4bc1-91ef-71d595c6f6eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7aaebdfc92267690fb596e4210c7015b" ns2:_="" ns3:_="">
     <xsd:import namespace="976d66e2-41d4-4691-bc00-48b7de60855d"/>
@@ -1668,22 +1683,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D700868-108A-49E2-B4B4-2D02773D9589}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1700,21 +1717,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jcmatos\Documents\HSL-IPS\Entregaveis\1.RepositorioSemantico\Terminologias\OBM\Monitoramento\03 - Março\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Monalisa\OneDrive - Hospital Sírio Libanês\Documentos 1\HSL-IPS\Entregaveis\1.RepositorioSemantico\Terminologias\OBM\Monitoramento\03 - Março\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="765" windowWidth="29175" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="768" windowWidth="29172" windowHeight="14232"/>
   </bookViews>
   <sheets>
     <sheet name="Monitoramento diário" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="21">
-  <si>
-    <t>Anotar diariamente as 18h</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="25">
   <si>
     <t>VMP</t>
   </si>
@@ -100,6 +97,21 @@
   </si>
   <si>
     <t>Totais</t>
+  </si>
+  <si>
+    <t>Medicamentos Hórus</t>
+  </si>
+  <si>
+    <t>Quantidade Medicamentos Lista Hórus</t>
+  </si>
+  <si>
+    <t>Total Realizado até 23/03/2023</t>
+  </si>
+  <si>
+    <t>ACETILCISTEÍNA + TUAMINOEPTANO 10 MG + 5 MG/ML SOLUÇÃO NASAL</t>
+  </si>
+  <si>
+    <t>Anotar diariamente no final do dia</t>
   </si>
 </sst>
 </file>
@@ -161,7 +173,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -225,6 +237,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99FF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -315,7 +333,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -426,12 +444,32 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -706,595 +744,650 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:J25"/>
+  <dimension ref="A3:Q25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="24"/>
+    <col min="1" max="2" width="8.88671875" style="24"/>
+    <col min="3" max="3" width="12.88671875" style="24" customWidth="1"/>
+    <col min="4" max="12" width="8.88671875" style="24"/>
+    <col min="13" max="13" width="3.33203125" style="24" customWidth="1"/>
+    <col min="14" max="14" width="34.109375" style="24" customWidth="1"/>
+    <col min="15" max="15" width="2.5546875" style="24" customWidth="1"/>
+    <col min="16" max="16" width="27" style="24" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
-      <c r="D3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3" s="23"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="41"/>
-      <c r="I4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K4" s="25"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="54"/>
+      <c r="D5" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="F5" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>7</v>
       </c>
       <c r="B6" s="30">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+      <c r="A7" s="31" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
-        <v>9</v>
       </c>
       <c r="B7" s="30">
         <v>14</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="50"/>
+      <c r="D7" s="26">
         <v>3</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="27">
+      <c r="E7" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="27">
         <v>20</v>
       </c>
-      <c r="F7" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="28">
+      <c r="G7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="28">
         <v>20</v>
       </c>
-      <c r="H7" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="29">
+      <c r="I7" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="29">
         <v>20</v>
       </c>
-      <c r="J7" s="29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K7" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="30">
         <v>15</v>
       </c>
-      <c r="C8" s="26" t="s">
-        <v>8</v>
-      </c>
+      <c r="C8" s="50"/>
       <c r="D8" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>7</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="28" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>7</v>
       </c>
       <c r="H8" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="I8" s="29" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>7</v>
       </c>
       <c r="J8" s="29" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="30">
         <v>16</v>
       </c>
-      <c r="C9" s="26">
-        <v>2</v>
-      </c>
+      <c r="C9" s="50"/>
       <c r="D9" s="26">
         <v>2</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="26">
         <v>2</v>
       </c>
       <c r="F9" s="27">
         <v>2</v>
       </c>
-      <c r="G9" s="28">
+      <c r="G9" s="27">
         <v>2</v>
       </c>
       <c r="H9" s="28">
         <v>2</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="28">
         <v>2</v>
       </c>
       <c r="J9" s="29">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9" s="29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="30">
         <v>17</v>
       </c>
-      <c r="C10" s="26">
-        <v>9</v>
-      </c>
+      <c r="C10" s="50"/>
       <c r="D10" s="26">
         <v>9</v>
       </c>
-      <c r="E10" s="27">
-        <v>14</v>
+      <c r="E10" s="26">
+        <v>9</v>
       </c>
       <c r="F10" s="27">
         <v>14</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="27">
         <v>14</v>
       </c>
       <c r="H10" s="28">
         <v>14</v>
       </c>
-      <c r="I10" s="29">
+      <c r="I10" s="28">
         <v>14</v>
       </c>
       <c r="J10" s="29">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K10" s="29">
+        <v>14</v>
+      </c>
+      <c r="N10" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" s="53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="33">
         <v>18</v>
       </c>
-      <c r="C11" s="33" t="s">
-        <v>8</v>
-      </c>
+      <c r="C11" s="50"/>
       <c r="D11" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="K11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="52">
+        <v>4802</v>
+      </c>
+      <c r="P11" s="52">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="33">
         <v>19</v>
       </c>
-      <c r="C12" s="33" t="s">
-        <v>8</v>
-      </c>
+      <c r="C12" s="50"/>
       <c r="D12" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H12" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I12" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" s="35">
         <v>20</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="51"/>
+      <c r="D13" s="26">
         <v>2</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="27">
+      <c r="E13" s="26"/>
+      <c r="F13" s="27">
         <v>14</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28">
+      <c r="G13" s="27"/>
+      <c r="H13" s="28">
         <v>14</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29">
-        <v>14</v>
-      </c>
+      <c r="I13" s="28"/>
       <c r="J13" s="29">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K13" s="29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="35">
         <v>21</v>
       </c>
-      <c r="C14" s="26">
+      <c r="C14" s="51"/>
+      <c r="D14" s="26">
         <v>2</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="27">
+      <c r="E14" s="26"/>
+      <c r="F14" s="27">
         <v>65</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="28">
+      <c r="G14" s="27"/>
+      <c r="H14" s="28">
         <v>65</v>
       </c>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29">
+      <c r="I14" s="28"/>
+      <c r="J14" s="29">
         <v>65</v>
       </c>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K14" s="29"/>
+    </row>
+    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="35">
         <v>22</v>
       </c>
-      <c r="C15" s="26">
+      <c r="C15" s="51"/>
+      <c r="D15" s="26">
         <v>5</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="27">
+      <c r="E15" s="26"/>
+      <c r="F15" s="27">
         <v>43</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28">
+      <c r="G15" s="27"/>
+      <c r="H15" s="28">
         <v>43</v>
       </c>
-      <c r="H15" s="28"/>
-      <c r="I15" s="29">
+      <c r="I15" s="28"/>
+      <c r="J15" s="29">
         <v>43</v>
       </c>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K15" s="29"/>
+    </row>
+    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="35">
         <v>23</v>
       </c>
-      <c r="C16" s="26"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="26"/>
-      <c r="E16" s="27"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
+      <c r="G16" s="27"/>
       <c r="H16" s="28"/>
-      <c r="I16" s="29"/>
+      <c r="I16" s="28"/>
       <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K16" s="29"/>
+    </row>
+    <row r="17" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A17" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" s="35">
         <v>24</v>
       </c>
-      <c r="C17" s="26"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="26"/>
-      <c r="E17" s="27"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
+      <c r="G17" s="27"/>
       <c r="H17" s="28"/>
-      <c r="I17" s="29"/>
+      <c r="I17" s="28"/>
       <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17" s="29"/>
+    </row>
+    <row r="18" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="36">
         <v>25</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>8</v>
-      </c>
+      <c r="C18" s="51"/>
       <c r="D18" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H18" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I18" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J18" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="36">
         <v>26</v>
       </c>
-      <c r="C19" s="33" t="s">
-        <v>8</v>
-      </c>
+      <c r="C19" s="51"/>
       <c r="D19" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I19" s="33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J19" s="33" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" s="35">
         <v>27</v>
       </c>
-      <c r="C20" s="26"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="26"/>
-      <c r="E20" s="27"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
+      <c r="G20" s="27"/>
       <c r="H20" s="28"/>
-      <c r="I20" s="29"/>
+      <c r="I20" s="28"/>
       <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K20" s="29"/>
+    </row>
+    <row r="21" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="34" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" s="35">
         <v>28</v>
       </c>
-      <c r="C21" s="26"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="26"/>
-      <c r="E21" s="27"/>
+      <c r="E21" s="26"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
+      <c r="G21" s="27"/>
       <c r="H21" s="28"/>
-      <c r="I21" s="29"/>
+      <c r="I21" s="28"/>
       <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K21" s="29"/>
+    </row>
+    <row r="22" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B22" s="35">
         <v>29</v>
       </c>
-      <c r="C22" s="26"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="26"/>
-      <c r="E22" s="27"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
+      <c r="G22" s="27"/>
       <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
+      <c r="I22" s="28"/>
       <c r="J22" s="29"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K22" s="29"/>
+    </row>
+    <row r="23" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A23" s="34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="35">
         <v>30</v>
       </c>
-      <c r="C23" s="26"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="26"/>
-      <c r="E23" s="27"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
+      <c r="G23" s="27"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
+      <c r="I23" s="28"/>
       <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23" s="29"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" s="35">
         <v>31</v>
       </c>
-      <c r="C24" s="26"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="26"/>
-      <c r="E24" s="27"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
+      <c r="G24" s="27"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
+      <c r="I24" s="28"/>
       <c r="J24" s="29"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K24" s="29"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="C25" s="37">
+        <f>SUM(C6:C24)</f>
+        <v>0</v>
+      </c>
       <c r="D25" s="37">
         <f>SUM(D6:D24)</f>
+        <v>23</v>
+      </c>
+      <c r="E25" s="37">
+        <f>SUM(E6:E24)</f>
         <v>11</v>
       </c>
-      <c r="E25" s="37">
-        <f t="shared" ref="E25:J25" si="0">SUM(E6:E24)</f>
+      <c r="F25" s="37">
+        <f t="shared" ref="F25:K25" si="0">SUM(F6:F24)</f>
         <v>158</v>
       </c>
-      <c r="F25" s="37">
+      <c r="G25" s="37">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G25" s="37">
+      <c r="H25" s="37">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="H25" s="37">
+      <c r="I25" s="37">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="I25" s="37">
+      <c r="J25" s="37">
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="J25" s="37">
+      <c r="K25" s="37">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
+  <mergeCells count="4">
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="C4:C5"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1306,69 +1399,69 @@
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="38">
-        <f>('Monitoramento diário'!D25/4800)*100</f>
+        <f>('Monitoramento diário'!E25/4800)*100</f>
         <v>0.22916666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="3"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B14" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="22">
         <v>1</v>
@@ -1391,73 +1484,73 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="12.140625" customWidth="1"/>
+    <col min="2" max="4" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
       <c r="D4" s="45"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
       <c r="B5" s="7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="10"/>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C11" s="46" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" s="47"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="14">
         <f>SUM(C7:C10)</f>
         <v>0</v>
@@ -1467,13 +1560,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C13" s="46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="47"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C14" s="48">
         <f>C12+D12</f>
         <v>0</v>
@@ -1498,15 +1591,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100AA942BBF91DA3C409F6490A3FF65830D" ma:contentTypeVersion="6" ma:contentTypeDescription="Criar um novo documento." ma:contentTypeScope="" ma:versionID="6812ba0663fc707bade8cd767ba40b1f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="976d66e2-41d4-4691-bc00-48b7de60855d" xmlns:ns3="510e5242-86c9-4bc1-91ef-71d595c6f6eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7aaebdfc92267690fb596e4210c7015b" ns2:_="" ns3:_="">
     <xsd:import namespace="976d66e2-41d4-4691-bc00-48b7de60855d"/>
@@ -1683,6 +1767,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
   <ds:schemaRefs>
@@ -1693,14 +1786,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D700868-108A-49E2-B4B4-2D02773D9589}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1717,4 +1802,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
+++ b/Entregaveis/1.RepositorioSemantico/Terminologias/OBM/Monitoramento/03 - Março/Monitoramento atividades OBM_Março.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="23">
   <si>
     <t>VMP</t>
   </si>
@@ -103,12 +103,6 @@
   </si>
   <si>
     <t>Quantidade Medicamentos Lista Hórus</t>
-  </si>
-  <si>
-    <t>Total Realizado até 23/03/2023</t>
-  </si>
-  <si>
-    <t>ACETILCISTEÍNA + TUAMINOEPTANO 10 MG + 5 MG/ML SOLUÇÃO NASAL</t>
   </si>
   <si>
     <t>Anotar diariamente no final do dia</t>
@@ -333,7 +327,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -411,6 +405,15 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -420,6 +423,9 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -443,21 +449,6 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -744,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q25"/>
+  <dimension ref="A3:N25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="P11" sqref="P11:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -758,17 +749,16 @@
     <col min="13" max="13" width="3.33203125" style="24" customWidth="1"/>
     <col min="14" max="14" width="34.109375" style="24" customWidth="1"/>
     <col min="15" max="15" width="2.5546875" style="24" customWidth="1"/>
-    <col min="16" max="16" width="27" style="24" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="24"/>
+    <col min="16" max="16384" width="8.88671875" style="24"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
       <c r="D3" s="23"/>
       <c r="E3" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F3" s="23"/>
       <c r="G3" s="23"/>
@@ -777,33 +767,33 @@
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="40" t="s">
+      <c r="E4" s="42"/>
+      <c r="F4" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="41" t="s">
+      <c r="G4" s="43"/>
+      <c r="H4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="41"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="25" t="s">
         <v>3</v>
       </c>
       <c r="K4" s="25"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
-      <c r="C5" s="54"/>
+      <c r="C5" s="45"/>
       <c r="D5" s="26" t="s">
         <v>4</v>
       </c>
@@ -829,14 +819,16 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="30">
         <v>13</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="D6" s="26" t="s">
         <v>7</v>
       </c>
@@ -862,14 +854,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="30">
         <v>14</v>
       </c>
-      <c r="C7" s="50"/>
+      <c r="C7" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="D7" s="26">
         <v>3</v>
       </c>
@@ -895,14 +889,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="30">
         <v>15</v>
       </c>
-      <c r="C8" s="50"/>
+      <c r="C8" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="D8" s="26" t="s">
         <v>7</v>
       </c>
@@ -928,14 +924,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="30">
         <v>16</v>
       </c>
-      <c r="C9" s="50"/>
+      <c r="C9" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="D9" s="26">
         <v>2</v>
       </c>
@@ -961,14 +959,16 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="30">
         <v>17</v>
       </c>
-      <c r="C10" s="50"/>
+      <c r="C10" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="D10" s="26">
         <v>9</v>
       </c>
@@ -993,21 +993,20 @@
       <c r="K10" s="29">
         <v>14</v>
       </c>
-      <c r="N10" s="52" t="s">
+      <c r="N10" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="53" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="33">
         <v>18</v>
       </c>
-      <c r="C11" s="50"/>
+      <c r="C11" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" s="33" t="s">
         <v>7</v>
       </c>
@@ -1032,24 +1031,20 @@
       <c r="K11" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="52">
+      <c r="N11" s="41">
         <v>4802</v>
       </c>
-      <c r="P11" s="52">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="33">
         <v>19</v>
       </c>
-      <c r="C12" s="50"/>
+      <c r="C12" s="39" t="s">
+        <v>7</v>
+      </c>
       <c r="D12" s="33" t="s">
         <v>7</v>
       </c>
@@ -1075,14 +1070,16 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="35">
         <v>20</v>
       </c>
-      <c r="C13" s="51"/>
+      <c r="C13" s="40" t="s">
+        <v>7</v>
+      </c>
       <c r="D13" s="26">
         <v>2</v>
       </c>
@@ -1102,14 +1099,16 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>8</v>
       </c>
       <c r="B14" s="35">
         <v>21</v>
       </c>
-      <c r="C14" s="51"/>
+      <c r="C14" s="40" t="s">
+        <v>7</v>
+      </c>
       <c r="D14" s="26">
         <v>2</v>
       </c>
@@ -1127,14 +1126,16 @@
       </c>
       <c r="K14" s="29"/>
     </row>
-    <row r="15" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B15" s="35">
         <v>22</v>
       </c>
-      <c r="C15" s="51"/>
+      <c r="C15" s="40">
+        <v>34</v>
+      </c>
       <c r="D15" s="26">
         <v>5</v>
       </c>
@@ -1152,14 +1153,14 @@
       </c>
       <c r="K15" s="29"/>
     </row>
-    <row r="16" spans="1:17" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>9</v>
       </c>
       <c r="B16" s="35">
         <v>23</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="27"/>
@@ -1176,7 +1177,7 @@
       <c r="B17" s="35">
         <v>24</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="40"/>
       <c r="D17" s="26"/>
       <c r="E17" s="26"/>
       <c r="F17" s="27"/>
@@ -1193,7 +1194,7 @@
       <c r="B18" s="36">
         <v>25</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="40"/>
       <c r="D18" s="33" t="s">
         <v>7</v>
       </c>
@@ -1226,7 +1227,7 @@
       <c r="B19" s="36">
         <v>26</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="40"/>
       <c r="D19" s="33" t="s">
         <v>7</v>
       </c>
@@ -1259,7 +1260,7 @@
       <c r="B20" s="35">
         <v>27</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="40"/>
       <c r="D20" s="26"/>
       <c r="E20" s="26"/>
       <c r="F20" s="27"/>
@@ -1276,7 +1277,7 @@
       <c r="B21" s="35">
         <v>28</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="40"/>
       <c r="D21" s="26"/>
       <c r="E21" s="26"/>
       <c r="F21" s="27"/>
@@ -1293,7 +1294,7 @@
       <c r="B22" s="35">
         <v>29</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="40"/>
       <c r="D22" s="26"/>
       <c r="E22" s="26"/>
       <c r="F22" s="27"/>
@@ -1310,7 +1311,7 @@
       <c r="B23" s="35">
         <v>30</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="40"/>
       <c r="D23" s="26"/>
       <c r="E23" s="26"/>
       <c r="F23" s="27"/>
@@ -1327,7 +1328,7 @@
       <c r="B24" s="35">
         <v>31</v>
       </c>
-      <c r="C24" s="51"/>
+      <c r="C24" s="40"/>
       <c r="D24" s="26"/>
       <c r="E24" s="26"/>
       <c r="F24" s="27"/>
@@ -1344,7 +1345,7 @@
       <c r="B25" s="37"/>
       <c r="C25" s="37">
         <f>SUM(C6:C24)</f>
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D25" s="37">
         <f>SUM(D6:D24)</f>
@@ -1406,11 +1407,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1490,12 +1491,12 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="49"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
@@ -1545,10 +1546,10 @@
       <c r="D10" s="10"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="47"/>
+      <c r="D11" s="51"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C12" s="14">
@@ -1561,17 +1562,17 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="47"/>
+      <c r="D13" s="51"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="48">
+      <c r="C14" s="52">
         <f>C12+D12</f>
         <v>0</v>
       </c>
-      <c r="D14" s="49"/>
+      <c r="D14" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1585,9 +1586,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1768,19 +1772,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1805,9 +1805,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C781C1E-6AEA-4713-A49F-0D25EA87918A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE225167-E917-4937-9360-B2179AE92F51}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>